--- a/SenkoMicro-SKCS-GUI - auto/Programming Discription/XGD610_FM_TEST.xlsx
+++ b/SenkoMicro-SKCS-GUI - auto/Programming Discription/XGD610_FM_TEST.xlsx
@@ -1053,27 +1053,75 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,76 +1131,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1464,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -1476,6 +1476,7 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
@@ -1494,19 +1495,19 @@
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B5" s="87">
-        <v>1</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="103">
+        <v>1</v>
+      </c>
+      <c r="C5" s="103" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="91"/>
+      <c r="E5" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="112"/>
       <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1531,15 +1532,15 @@
       <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="21">
         <v>0</v>
       </c>
-      <c r="E6" s="80">
-        <v>0</v>
-      </c>
-      <c r="F6" s="81"/>
+      <c r="E6" s="97">
+        <v>0</v>
+      </c>
+      <c r="F6" s="98"/>
       <c r="G6" s="22" t="s">
         <v>3</v>
       </c>
@@ -1551,30 +1552,30 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="106"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="84"/>
     </row>
     <row r="7" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="82">
-        <v>1</v>
-      </c>
-      <c r="F7" s="83"/>
+      <c r="E7" s="101">
+        <v>1</v>
+      </c>
+      <c r="F7" s="102"/>
       <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1587,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="107" t="s">
+      <c r="L7" s="85" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="58" t="s">
@@ -1619,15 +1620,15 @@
       <c r="V7" s="59"/>
     </row>
     <row r="8" spans="2:22" ht="15.75">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="82">
-        <v>0</v>
-      </c>
-      <c r="F8" s="83"/>
+      <c r="E8" s="101">
+        <v>0</v>
+      </c>
+      <c r="F8" s="102"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1640,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="60" t="s">
         <v>62</v>
       </c>
@@ -1672,15 +1673,15 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="84">
-        <v>1</v>
-      </c>
-      <c r="F9" s="85"/>
+      <c r="E9" s="95">
+        <v>1</v>
+      </c>
+      <c r="F9" s="96"/>
       <c r="G9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1693,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="108"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="60" t="s">
         <v>72</v>
       </c>
@@ -1725,7 +1726,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="15.75">
-      <c r="L10" s="108"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="60" t="s">
         <v>82</v>
       </c>
@@ -1758,7 +1759,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="16.5" thickBot="1">
-      <c r="L11" s="108"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="60" t="s">
         <v>92</v>
       </c>
@@ -1791,19 +1792,19 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B12" s="87">
+      <c r="B12" s="103">
         <v>2.1</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="103" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1813,17 +1814,17 @@
       <c r="I12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="110" t="s">
+      <c r="N12" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="64" t="s">
         <v>104</v>
       </c>
@@ -1838,72 +1839,72 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="15.75">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="26">
         <v>0</v>
       </c>
-      <c r="E13" s="82">
-        <v>0</v>
-      </c>
-      <c r="F13" s="83"/>
+      <c r="E13" s="101">
+        <v>0</v>
+      </c>
+      <c r="F13" s="102"/>
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="102" t="s">
+      <c r="I13" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="21">
         <v>0</v>
       </c>
-      <c r="E14" s="80">
-        <v>1</v>
-      </c>
-      <c r="F14" s="81"/>
+      <c r="E14" s="97">
+        <v>1</v>
+      </c>
+      <c r="F14" s="98"/>
       <c r="G14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="102"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="2:22" ht="15.75">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="82">
-        <v>0</v>
-      </c>
-      <c r="F15" s="83"/>
+      <c r="E15" s="101">
+        <v>0</v>
+      </c>
+      <c r="F15" s="102"/>
       <c r="G15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="102"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="27">
         <v>1</v>
       </c>
-      <c r="E16" s="84">
-        <v>1</v>
-      </c>
-      <c r="F16" s="85"/>
+      <c r="E16" s="95">
+        <v>1</v>
+      </c>
+      <c r="F16" s="96"/>
       <c r="G16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="103"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="81"/>
       <c r="J16" t="s">
         <v>111</v>
       </c>
@@ -1929,10 +1930,10 @@
       <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:13" ht="15.75">
-      <c r="B19" s="97">
+      <c r="B19" s="92">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="89" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="78" t="s">
@@ -1945,8 +1946,8 @@
       <c r="I19" s="72"/>
     </row>
     <row r="20" spans="2:13" ht="15.75">
-      <c r="B20" s="98"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="79">
         <v>0</v>
       </c>
@@ -1959,8 +1960,8 @@
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="77">
         <v>1</v>
       </c>
@@ -1977,10 +1978,10 @@
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="2:13" ht="30">
-      <c r="B23" s="87">
+      <c r="B23" s="103">
         <v>3</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="106" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -2007,8 +2008,8 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" ht="54" customHeight="1">
-      <c r="B24" s="88"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="36">
         <v>0</v>
       </c>
@@ -2024,7 +2025,7 @@
       <c r="H24" s="47">
         <v>0</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="109" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="43">
@@ -2035,8 +2036,8 @@
       <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="88"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="36">
         <v>0</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="H25" s="46">
         <v>-359</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="43">
         <v>1</v>
       </c>
@@ -2061,8 +2062,8 @@
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="88"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="36">
         <v>0</v>
       </c>
@@ -2078,7 +2079,7 @@
       <c r="H26" s="48">
         <v>-710</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="45">
         <v>2</v>
       </c>
@@ -2087,8 +2088,8 @@
       <c r="M26" s="45"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="88"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="21">
         <v>0</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="H27" s="47">
         <v>-1027</v>
       </c>
-      <c r="I27" s="95"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="43">
         <v>3</v>
       </c>
@@ -2113,8 +2114,8 @@
       <c r="M27" s="43"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="88"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="36">
         <v>1</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="H28" s="47">
         <v>1192</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="109"/>
       <c r="J28" s="43">
         <v>4</v>
       </c>
@@ -2139,8 +2140,8 @@
       <c r="M28" s="43"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="88"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="36">
         <v>1</v>
       </c>
@@ -2156,7 +2157,7 @@
       <c r="H29" s="47">
         <v>757</v>
       </c>
-      <c r="I29" s="95"/>
+      <c r="I29" s="109"/>
       <c r="J29" s="45">
         <v>5</v>
       </c>
@@ -2165,8 +2166,8 @@
       <c r="M29" s="43"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="88"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="36">
         <v>1</v>
       </c>
@@ -2182,7 +2183,7 @@
       <c r="H30" s="47">
         <v>366</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="43">
         <v>6</v>
       </c>
@@ -2191,8 +2192,8 @@
       <c r="M30" s="43"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B31" s="89"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="38">
         <v>1</v>
       </c>
@@ -2208,7 +2209,7 @@
       <c r="H31" s="49">
         <v>0</v>
       </c>
-      <c r="I31" s="96"/>
+      <c r="I31" s="110"/>
       <c r="J31" s="43">
         <v>7</v>
       </c>
@@ -2218,19 +2219,19 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:9" ht="15.75">
-      <c r="B34" s="87">
+      <c r="B34" s="103">
         <v>4</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="103" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="91"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="9" t="s">
         <v>35</v>
       </c>
@@ -2239,75 +2240,75 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="21">
         <v>0</v>
       </c>
-      <c r="E35" s="80">
-        <v>0</v>
-      </c>
-      <c r="F35" s="81"/>
+      <c r="E35" s="97">
+        <v>0</v>
+      </c>
+      <c r="F35" s="98"/>
       <c r="G35" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="86" t="s">
+      <c r="I35" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="36">
         <v>0</v>
       </c>
-      <c r="E36" s="82">
-        <v>1</v>
-      </c>
-      <c r="F36" s="83"/>
+      <c r="E36" s="101">
+        <v>1</v>
+      </c>
+      <c r="F36" s="102"/>
       <c r="G36" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="86"/>
+      <c r="I36" s="113"/>
     </row>
     <row r="37" spans="2:9" ht="15.75">
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="36">
         <v>1</v>
       </c>
-      <c r="E37" s="82">
-        <v>1</v>
-      </c>
-      <c r="F37" s="83"/>
+      <c r="E37" s="101">
+        <v>1</v>
+      </c>
+      <c r="F37" s="102"/>
       <c r="G37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H37" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="86"/>
+      <c r="I37" s="113"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="38">
         <v>1</v>
       </c>
-      <c r="E38" s="84">
-        <v>0</v>
-      </c>
-      <c r="F38" s="85"/>
+      <c r="E38" s="95">
+        <v>0</v>
+      </c>
+      <c r="F38" s="96"/>
       <c r="G38" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="86"/>
+      <c r="I38" s="113"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41">
@@ -2351,11 +2352,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="L6:V6"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E9:F9"/>
@@ -2363,12 +2370,6 @@
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C5:C9"/>
@@ -2378,11 +2379,11 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="L6:V6"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,7 +2408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
